--- a/Templates/TemplateCrossEntropy.xlsx
+++ b/Templates/TemplateCrossEntropy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67895986-9DF4-47DE-A59C-BD3311D459C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEAD71-233B-4DD5-9E14-6FF8F2A8C456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
+    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/Templates/TemplateCrossEntropy.xlsx
+++ b/Templates/TemplateCrossEntropy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEAD71-233B-4DD5-9E14-6FF8F2A8C456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA27735F-AD62-48D5-AEFB-8EA5C0BF2BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
+    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/Templates/TemplateCrossEntropy.xlsx
+++ b/Templates/TemplateCrossEntropy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA27735F-AD62-48D5-AEFB-8EA5C0BF2BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2570C-4F6E-4D4B-A07C-60B3C7D8730E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
